--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/58_11R22.xlsx
@@ -674,58 +674,58 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1846822601012179</v>
+        <v>0.07454841270004955</v>
       </c>
       <c r="E2">
-        <v>0.03612287545471059</v>
+        <v>0.1079215105597192</v>
       </c>
       <c r="F2">
-        <v>0.3421754535433115</v>
+        <v>0.3772733962050943</v>
       </c>
       <c r="G2">
-        <v>0.1505025059725814</v>
+        <v>0.2496651718738849</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0169937337993714</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.03357594587400043</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01453651752689589</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0001927655964754063</v>
       </c>
       <c r="M2">
-        <v>0.0002717033105636279</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01848680942741538</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1338826017316122</v>
+        <v>0.04862953471870277</v>
       </c>
       <c r="P2">
-        <v>0.05611776204902586</v>
+        <v>0.01035623524432942</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.004186786987433726</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.01644636773052333</v>
+        <v>0.01373273019738576</v>
       </c>
       <c r="T2">
-        <v>0.00133399114960837</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.01576450582855784</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -740,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001622585697704025</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.0001845679473437265</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.005478047512542689</v>
+        <v>0.006779867221238154</v>
       </c>
       <c r="AD2">
-        <v>0.002480199335002122</v>
+        <v>0.01222636206053013</v>
       </c>
       <c r="AE2">
-        <v>0.01411555144945933</v>
+        <v>0.01761874264642111</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.03209449854728772</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -784,22 +784,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3670825490845082</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.2945667478573543</v>
       </c>
       <c r="F3">
-        <v>0.4588233992205751</v>
+        <v>0.01149969093354612</v>
       </c>
       <c r="G3">
-        <v>0.03668130700365096</v>
+        <v>0.3497332595602707</v>
       </c>
       <c r="H3">
-        <v>0.007784086107060921</v>
+        <v>0.1896942263196289</v>
       </c>
       <c r="I3">
-        <v>0.004877939741631982</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -811,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03995698905785239</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05628735673447342</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.006825496494718258</v>
+        <v>0.01756526658571847</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.03995698905785239</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.02483744981173079</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.0220912063283072</v>
+        <v>0.00262636066234207</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -850,31 +850,31 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.001363599879531247</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>0.007394852588863709</v>
       </c>
       <c r="AB3">
-        <v>0.004379513555871962</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.002170179387268614</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0134331378923263</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.02216816756484003</v>
       </c>
       <c r="AG3">
-        <v>0.01062593620549025</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.007574292364585204</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2502318013264258</v>
+        <v>0.3226212138074034</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4560376009811742</v>
+        <v>0.4721946624667994</v>
       </c>
       <c r="G4">
-        <v>0.1328613007140707</v>
+        <v>0.06627637698196412</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.009278776584576202</v>
       </c>
       <c r="I4">
-        <v>0.009337097654170715</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03897304641781044</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.008831583433486353</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06133225956465835</v>
+        <v>0.03049168538475201</v>
       </c>
       <c r="P4">
-        <v>0.03512307784460952</v>
+        <v>0.03879741086587735</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -939,10 +939,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.007455338003167065</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.003301832398478458</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001987832597119406</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001695504342929497</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02503426312104645</v>
+        <v>0.01253524405733073</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.01560209145214949</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1004,55 +1004,55 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3678392964760315</v>
+        <v>0.07185568370362862</v>
       </c>
       <c r="E5">
-        <v>0.04683073161579145</v>
+        <v>0.1244208921674546</v>
       </c>
       <c r="F5">
-        <v>0.4408058585815912</v>
+        <v>0.3417340394157604</v>
       </c>
       <c r="G5">
-        <v>0.005518495593361934</v>
+        <v>0.2027483403116044</v>
       </c>
       <c r="H5">
-        <v>0.0143745827254378</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.004984225349362353</v>
+        <v>0.01200489243730724</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02524806311256349</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03659023754633048</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.01065451844725908</v>
       </c>
       <c r="O5">
-        <v>0.05628190251094038</v>
+        <v>0.02470722418407453</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.08762768431512988</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.02917789631701283</v>
       </c>
       <c r="R5">
-        <v>0.000428588743355322</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01849971645656474</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.002751408963919069</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1070,31 +1070,31 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.003151335497256952</v>
+        <v>0.002981873717387848</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.007284162925721574</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.002270778978943264</v>
       </c>
       <c r="AD5">
-        <v>0.009758427364976797</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01528437457549021</v>
+        <v>0.01252024895165163</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008958301584117635</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01270621742997269</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1114,46 +1114,46 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.08235159196451732</v>
       </c>
       <c r="E6">
-        <v>0.2842842859730206</v>
+        <v>0.1477645775281499</v>
       </c>
       <c r="F6">
-        <v>0.09100225781906657</v>
+        <v>0.3046972953303805</v>
       </c>
       <c r="G6">
-        <v>0.4855514973602118</v>
+        <v>0.1874768730833635</v>
       </c>
       <c r="H6">
-        <v>0.01203494998421669</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02288420403985639</v>
+        <v>0.002389176980623534</v>
       </c>
       <c r="J6">
-        <v>0.01502498861760896</v>
+        <v>0.01279086949924961</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.01343120778376208</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04067069159062578</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01523917373726314</v>
       </c>
       <c r="P6">
-        <v>0.03396743791293576</v>
+        <v>0.1168016926142017</v>
       </c>
       <c r="Q6">
-        <v>0.002973030301002553</v>
+        <v>0.005161281809164245</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1165,13 +1165,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01079579158656727</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.0207958061590477</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.002549766317257187</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1189,25 +1189,25 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01167705922835181</v>
+        <v>0.0006432811262210261</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.00699679190305257</v>
+        <v>0.002360992143963318</v>
       </c>
       <c r="AF6">
-        <v>0.01404168184336196</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.008766023430746882</v>
+        <v>0.02941671151229756</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.01545901081991187</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1347,103 +1347,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1846822601012179</v>
+        <v>0.07454841270004955</v>
       </c>
       <c r="E2">
-        <v>0.2208051355559285</v>
+        <v>0.1824699232597687</v>
       </c>
       <c r="F2">
-        <v>0.56298058909924</v>
+        <v>0.5597433194648631</v>
       </c>
       <c r="G2">
-        <v>0.7134830950718214</v>
+        <v>0.809408491338748</v>
       </c>
       <c r="H2">
-        <v>0.7134830950718214</v>
+        <v>0.8264022251381195</v>
       </c>
       <c r="I2">
-        <v>0.7134830950718214</v>
+        <v>0.8599781710121199</v>
       </c>
       <c r="J2">
-        <v>0.7134830950718214</v>
+        <v>0.8745146885390158</v>
       </c>
       <c r="K2">
-        <v>0.7134830950718214</v>
+        <v>0.8745146885390158</v>
       </c>
       <c r="L2">
-        <v>0.7134830950718214</v>
+        <v>0.8747074541354912</v>
       </c>
       <c r="M2">
-        <v>0.713754798382385</v>
+        <v>0.8747074541354912</v>
       </c>
       <c r="N2">
-        <v>0.7322416078098004</v>
+        <v>0.8747074541354912</v>
       </c>
       <c r="O2">
-        <v>0.8661242095414127</v>
+        <v>0.923336988854194</v>
       </c>
       <c r="P2">
-        <v>0.9222419715904385</v>
+        <v>0.9336932240985234</v>
       </c>
       <c r="Q2">
-        <v>0.9222419715904385</v>
+        <v>0.9336932240985234</v>
       </c>
       <c r="R2">
-        <v>0.9264287585778722</v>
+        <v>0.9336932240985234</v>
       </c>
       <c r="S2">
-        <v>0.9428751263083955</v>
+        <v>0.9474259542959091</v>
       </c>
       <c r="T2">
-        <v>0.944209117458004</v>
+        <v>0.9474259542959091</v>
       </c>
       <c r="U2">
-        <v>0.944209117458004</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="V2">
-        <v>0.944209117458004</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="W2">
-        <v>0.944209117458004</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="X2">
-        <v>0.944209117458004</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="Y2">
-        <v>0.944209117458004</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="Z2">
-        <v>0.945831703155708</v>
+        <v>0.963190460124467</v>
       </c>
       <c r="AA2">
-        <v>0.945831703155708</v>
+        <v>0.9633750280718106</v>
       </c>
       <c r="AB2">
-        <v>0.945831703155708</v>
+        <v>0.9633750280718106</v>
       </c>
       <c r="AC2">
-        <v>0.9513097506682506</v>
+        <v>0.9701548952930488</v>
       </c>
       <c r="AD2">
-        <v>0.9537899500032527</v>
+        <v>0.982381257353579</v>
       </c>
       <c r="AE2">
-        <v>0.967905501452712</v>
+        <v>1</v>
       </c>
       <c r="AF2">
-        <v>0.967905501452712</v>
+        <v>1</v>
       </c>
       <c r="AG2">
-        <v>0.967905501452712</v>
+        <v>1</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -1457,103 +1457,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3670825490845082</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3670825490845082</v>
+        <v>0.2945667478573543</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.3060664387909005</v>
       </c>
       <c r="G3">
-        <v>0.8625872553087343</v>
+        <v>0.6557996983511711</v>
       </c>
       <c r="H3">
-        <v>0.8703713414157952</v>
+        <v>0.8454939246708</v>
       </c>
       <c r="I3">
-        <v>0.8752492811574272</v>
+        <v>0.8454939246708</v>
       </c>
       <c r="J3">
-        <v>0.8752492811574272</v>
+        <v>0.8454939246708</v>
       </c>
       <c r="K3">
-        <v>0.8752492811574272</v>
+        <v>0.8454939246708</v>
       </c>
       <c r="L3">
-        <v>0.8752492811574272</v>
+        <v>0.8454939246708</v>
       </c>
       <c r="M3">
-        <v>0.8752492811574272</v>
+        <v>0.8854509137286524</v>
       </c>
       <c r="N3">
-        <v>0.8752492811574272</v>
+        <v>0.8854509137286524</v>
       </c>
       <c r="O3">
-        <v>0.9315366378919006</v>
+        <v>0.8854509137286524</v>
       </c>
       <c r="P3">
-        <v>0.9383621343866189</v>
+        <v>0.9030161803143708</v>
       </c>
       <c r="Q3">
-        <v>0.9383621343866189</v>
+        <v>0.9429731693722232</v>
       </c>
       <c r="R3">
-        <v>0.9383621343866189</v>
+        <v>0.9678106191839539</v>
       </c>
       <c r="S3">
-        <v>0.9383621343866189</v>
+        <v>0.9678106191839539</v>
       </c>
       <c r="T3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="U3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="V3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="W3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="X3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="Y3">
-        <v>0.9604533407149261</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="Z3">
-        <v>0.9618169405944573</v>
+        <v>0.9704369798462961</v>
       </c>
       <c r="AA3">
-        <v>0.9618169405944573</v>
+        <v>0.9778318324351598</v>
       </c>
       <c r="AB3">
-        <v>0.9661964541503293</v>
+        <v>0.9778318324351598</v>
       </c>
       <c r="AC3">
-        <v>0.9661964541503293</v>
+        <v>0.9778318324351598</v>
       </c>
       <c r="AD3">
-        <v>0.9683666335375979</v>
+        <v>0.9778318324351598</v>
       </c>
       <c r="AE3">
-        <v>0.9817997714299241</v>
+        <v>0.9778318324351598</v>
       </c>
       <c r="AF3">
-        <v>0.9817997714299241</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>0.9924257076354144</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999996</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -1567,103 +1567,103 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2502318013264258</v>
+        <v>0.3226212138074034</v>
       </c>
       <c r="E4">
-        <v>0.2502318013264258</v>
+        <v>0.3226212138074034</v>
       </c>
       <c r="F4">
-        <v>0.7062694023076</v>
+        <v>0.7948158762742028</v>
       </c>
       <c r="G4">
-        <v>0.8391307030216708</v>
+        <v>0.8610922532561669</v>
       </c>
       <c r="H4">
-        <v>0.8391307030216708</v>
+        <v>0.8703710298407431</v>
       </c>
       <c r="I4">
-        <v>0.8484678006758415</v>
+        <v>0.8703710298407431</v>
       </c>
       <c r="J4">
-        <v>0.8484678006758415</v>
+        <v>0.9093440762585535</v>
       </c>
       <c r="K4">
-        <v>0.8484678006758415</v>
+        <v>0.9093440762585535</v>
       </c>
       <c r="L4">
-        <v>0.8484678006758415</v>
+        <v>0.9181756596920398</v>
       </c>
       <c r="M4">
-        <v>0.8484678006758415</v>
+        <v>0.9181756596920398</v>
       </c>
       <c r="N4">
-        <v>0.8484678006758415</v>
+        <v>0.9181756596920398</v>
       </c>
       <c r="O4">
-        <v>0.9098000602404999</v>
+        <v>0.9486673450767918</v>
       </c>
       <c r="P4">
-        <v>0.9449231380851094</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="Q4">
-        <v>0.9449231380851094</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="R4">
-        <v>0.9449231380851094</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="S4">
-        <v>0.9523784760882765</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="T4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="U4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="V4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="W4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="X4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="Y4">
-        <v>0.955680308486755</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="Z4">
-        <v>0.9576681410838744</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="AA4">
-        <v>0.9576681410838744</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="AB4">
-        <v>0.9576681410838744</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="AC4">
-        <v>0.9576681410838744</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="AD4">
-        <v>0.959363645426804</v>
+        <v>0.9874647559426692</v>
       </c>
       <c r="AE4">
-        <v>0.9843979085478504</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0.9843979085478504</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0.9843979085478504</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:36">
@@ -1677,103 +1677,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3678392964760315</v>
+        <v>0.07185568370362862</v>
       </c>
       <c r="E5">
-        <v>0.414670028091823</v>
+        <v>0.1962765758710832</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.5380106152868436</v>
       </c>
       <c r="G5">
-        <v>0.860994382266776</v>
+        <v>0.740758955598448</v>
       </c>
       <c r="H5">
-        <v>0.8753689649922138</v>
+        <v>0.740758955598448</v>
       </c>
       <c r="I5">
-        <v>0.8803531903415762</v>
+        <v>0.7527638480357552</v>
       </c>
       <c r="J5">
-        <v>0.8803531903415762</v>
+        <v>0.7780119111483187</v>
       </c>
       <c r="K5">
-        <v>0.8803531903415762</v>
+        <v>0.7780119111483187</v>
       </c>
       <c r="L5">
-        <v>0.8803531903415762</v>
+        <v>0.8146021486946492</v>
       </c>
       <c r="M5">
-        <v>0.8803531903415762</v>
+        <v>0.8146021486946492</v>
       </c>
       <c r="N5">
-        <v>0.8803531903415762</v>
+        <v>0.8252566671419083</v>
       </c>
       <c r="O5">
-        <v>0.9366350928525166</v>
+        <v>0.8499638913259828</v>
       </c>
       <c r="P5">
-        <v>0.9366350928525166</v>
+        <v>0.9375915756411127</v>
       </c>
       <c r="Q5">
-        <v>0.9366350928525166</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="R5">
-        <v>0.9370636815958718</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="S5">
-        <v>0.9370636815958718</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="T5">
-        <v>0.9555633980524366</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="U5">
-        <v>0.9555633980524366</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="V5">
-        <v>0.9555633980524366</v>
+        <v>0.9667694719581256</v>
       </c>
       <c r="W5">
-        <v>0.9555633980524366</v>
+        <v>0.9695208809220447</v>
       </c>
       <c r="X5">
-        <v>0.9555633980524366</v>
+        <v>0.9695208809220447</v>
       </c>
       <c r="Y5">
-        <v>0.9555633980524366</v>
+        <v>0.9695208809220447</v>
       </c>
       <c r="Z5">
-        <v>0.9587147335496936</v>
+        <v>0.9725027546394326</v>
       </c>
       <c r="AA5">
-        <v>0.9587147335496936</v>
+        <v>0.9725027546394326</v>
       </c>
       <c r="AB5">
-        <v>0.9659988964754151</v>
+        <v>0.9725027546394326</v>
       </c>
       <c r="AC5">
-        <v>0.9659988964754151</v>
+        <v>0.9747735336183758</v>
       </c>
       <c r="AD5">
-        <v>0.9757573238403919</v>
+        <v>0.9747735336183758</v>
       </c>
       <c r="AE5">
-        <v>0.9910416984158822</v>
+        <v>0.9872937825700274</v>
       </c>
       <c r="AF5">
-        <v>0.9910416984158822</v>
+        <v>0.9872937825700274</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9872937825700274</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -1787,103 +1787,103 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.08235159196451732</v>
       </c>
       <c r="E6">
-        <v>0.2842842859730206</v>
+        <v>0.2301161694926673</v>
       </c>
       <c r="F6">
-        <v>0.3752865437920872</v>
+        <v>0.5348134648230478</v>
       </c>
       <c r="G6">
-        <v>0.860838041152299</v>
+        <v>0.7222903379064113</v>
       </c>
       <c r="H6">
-        <v>0.8728729911365157</v>
+        <v>0.7222903379064113</v>
       </c>
       <c r="I6">
-        <v>0.8957571951763721</v>
+        <v>0.7246795148870349</v>
       </c>
       <c r="J6">
-        <v>0.910782183793981</v>
+        <v>0.7374703843862844</v>
       </c>
       <c r="K6">
-        <v>0.910782183793981</v>
+        <v>0.7374703843862844</v>
       </c>
       <c r="L6">
-        <v>0.910782183793981</v>
+        <v>0.7509015921700465</v>
       </c>
       <c r="M6">
-        <v>0.910782183793981</v>
+        <v>0.7509015921700465</v>
       </c>
       <c r="N6">
-        <v>0.910782183793981</v>
+        <v>0.7915722837606722</v>
       </c>
       <c r="O6">
-        <v>0.910782183793981</v>
+        <v>0.8068114574979354</v>
       </c>
       <c r="P6">
-        <v>0.9447496217069168</v>
+        <v>0.9236131501121371</v>
       </c>
       <c r="Q6">
-        <v>0.9477226520079194</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="R6">
-        <v>0.9477226520079194</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="S6">
-        <v>0.9477226520079194</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="T6">
-        <v>0.9477226520079194</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="U6">
-        <v>0.9585184435944867</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="V6">
-        <v>0.9585184435944867</v>
+        <v>0.9287744319213013</v>
       </c>
       <c r="W6">
-        <v>0.9585184435944867</v>
+        <v>0.949570238080349</v>
       </c>
       <c r="X6">
-        <v>0.9585184435944867</v>
+        <v>0.949570238080349</v>
       </c>
       <c r="Y6">
-        <v>0.9585184435944867</v>
+        <v>0.949570238080349</v>
       </c>
       <c r="Z6">
-        <v>0.9585184435944867</v>
+        <v>0.9521200043976062</v>
       </c>
       <c r="AA6">
-        <v>0.9585184435944867</v>
+        <v>0.9521200043976062</v>
       </c>
       <c r="AB6">
-        <v>0.9585184435944867</v>
+        <v>0.9521200043976062</v>
       </c>
       <c r="AC6">
-        <v>0.9701955028228385</v>
+        <v>0.9527632855238273</v>
       </c>
       <c r="AD6">
-        <v>0.9701955028228385</v>
+        <v>0.9527632855238273</v>
       </c>
       <c r="AE6">
-        <v>0.9771922947258911</v>
+        <v>0.9551242776677906</v>
       </c>
       <c r="AF6">
-        <v>0.9912339765692531</v>
+        <v>0.9551242776677906</v>
       </c>
       <c r="AG6">
-        <v>0.9912339765692531</v>
+        <v>0.9551242776677906</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9845409891800881</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.56298058909924</v>
+        <v>0.5597433194648631</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1989,16 +1989,16 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.6557996983511711</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7062694023076</v>
+        <v>0.7948158762742028</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.5380106152868436</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -2112,16 +2112,16 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.860838041152299</v>
+        <v>0.5348134648230478</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7134830950718214</v>
+        <v>0.809408491338748</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2248,19 +2248,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8454939246708</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8259059483050833</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7062694023076</v>
+        <v>0.7948158762742028</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2333,16 +2333,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.740758955598448</v>
+      </c>
+      <c r="G5">
         <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8554758866734141</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -2371,7 +2371,7 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.860838041152299</v>
+        <v>0.7222903379064113</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -2469,16 +2469,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8661242095414127</v>
+        <v>0.809408491338748</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -2507,19 +2507,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8454939246708</v>
+      </c>
+      <c r="G3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8259059483050833</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8391307030216708</v>
+        <v>0.8610922532561669</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -2592,16 +2592,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.8146021486946492</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -2630,19 +2630,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.860838041152299</v>
+        <v>0.8068114574979354</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -2728,16 +2728,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9222419715904385</v>
+        <v>0.923336988854194</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -2766,16 +2766,16 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9315366378919006</v>
+        <v>0.9030161803143708</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -2810,16 +2810,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9098000602404999</v>
+        <v>0.9093440762585535</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -2851,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9375915756411127</v>
+      </c>
+      <c r="G5">
         <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.9366350928525166</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -2889,19 +2889,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.910782183793981</v>
+        <v>0.9236131501121371</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>58</v>
